--- a/results/mod2.galtan.eff.CAM.contrast.xlsx
+++ b/results/mod2.galtan.eff.CAM.contrast.xlsx
@@ -416,25 +416,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.233751791139174</v>
+        <v>0.233763308126971</v>
       </c>
       <c r="C2" t="n">
-        <v>0.102055031679222</v>
+        <v>0.10205619969598</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0337276046068049</v>
+        <v>0.0337368323238226</v>
       </c>
       <c r="F2" t="n">
-        <v>0.433775977671543</v>
+        <v>0.433789783930119</v>
       </c>
       <c r="G2" t="n">
-        <v>2.29044846974228</v>
+        <v>2.29053510539624</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0219953325082249</v>
+        <v>0.0219903159515674</v>
       </c>
     </row>
     <row r="3">
@@ -442,25 +442,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.124223686645951</v>
+        <v>0.124223828947148</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0373919991528728</v>
+        <v>0.0373919347947394</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0509367149963682</v>
+        <v>0.0509369834371884</v>
       </c>
       <c r="F3" t="n">
-        <v>0.197510658295534</v>
+        <v>0.197510674457107</v>
       </c>
       <c r="G3" t="n">
-        <v>3.32219965394407</v>
+        <v>3.32220917770279</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000893107637319858</v>
+        <v>0.000893077152390851</v>
       </c>
     </row>
     <row r="4">
@@ -468,25 +468,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0406180773916881</v>
+        <v>0.0406184093182443</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0286258947124335</v>
+        <v>0.0286258320074939</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0154876452699171</v>
+        <v>-0.0154871904439376</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0967238000532934</v>
+        <v>0.0967240090804261</v>
       </c>
       <c r="G4" t="n">
-        <v>1.41892778547969</v>
+        <v>1.41894248899424</v>
       </c>
       <c r="H4" t="n">
-        <v>0.15592007069422</v>
+        <v>0.155915783610418</v>
       </c>
     </row>
     <row r="5">
@@ -494,25 +494,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.109528104493223</v>
+        <v>-0.109539479179823</v>
       </c>
       <c r="C5" t="n">
-        <v>0.102135386608571</v>
+        <v>0.102136588338462</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.309709783793098</v>
+        <v>-0.309723513827003</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0906535748066515</v>
+        <v>0.0906445554673569</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.07238155285967</v>
+        <v>-1.07248030271805</v>
       </c>
       <c r="H5" t="n">
-        <v>0.283548690147042</v>
+        <v>0.283504356471009</v>
       </c>
     </row>
     <row r="6">
@@ -520,25 +520,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.193133713747486</v>
+        <v>-0.193144898808726</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0995761055690175</v>
+        <v>0.0995773086351485</v>
       </c>
       <c r="D6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.388299294383519</v>
+        <v>-0.388312837411047</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00203186688854676</v>
+        <v>0.00202303979359381</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.93955881929548</v>
+        <v>-1.9396477114722</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0524333296708854</v>
+        <v>0.0524225182574852</v>
       </c>
     </row>
     <row r="7">
@@ -546,25 +546,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0836056092542629</v>
+        <v>-0.0836054196289036</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0275182772737356</v>
+        <v>0.0275182466684683</v>
       </c>
       <c r="D7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.137540441627372</v>
+        <v>-0.137540192016791</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.029670776881154</v>
+        <v>-0.0296706472410165</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.03818470984224</v>
+        <v>-3.03818119795774</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00238008019455551</v>
+        <v>0.00238010793354215</v>
       </c>
     </row>
   </sheetData>
